--- a/RD2SIM.xlsx
+++ b/RD2SIM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kkelley/Desktop/CHE4230Project/CHE4230Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\CHE4230Project-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA69B038-9414-5147-824B-1F7FB73AAE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAC1B01-AF70-4F01-A051-32B0302136D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{A3027DC1-3C20-7543-B9D4-75100248DF47}"/>
+    <workbookView xWindow="38460" yWindow="2220" windowWidth="18495" windowHeight="15585" activeTab="3" xr2:uid="{A3027DC1-3C20-7543-B9D4-75100248DF47}"/>
   </bookViews>
   <sheets>
     <sheet name="East" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="430">
   <si>
     <t>Team A</t>
   </si>
@@ -1418,7 +1418,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1440,6 +1440,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1469,7 +1472,6 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Regions wTeam Data"/>
-      <sheetName val="Simulation Runs"/>
       <sheetName val="Historical Seed Performance RD1"/>
       <sheetName val="Historical Seed Performance RD2"/>
       <sheetName val="Historical Seed Performance RD3"/>
@@ -1489,8 +1491,7 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="5">
         <row r="1">
           <cell r="X1">
             <v>-0.53569999999999995</v>
@@ -1512,13 +1513,13 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1843,22 +1844,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AD478D-4A42-244B-BD86-AD0B530CA2A6}">
   <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="22" width="11" style="1"/>
-    <col min="23" max="23" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="16384" width="11" style="1"/>
   </cols>
@@ -1914,23 +1915,23 @@
       <c r="A2" s="6">
         <v>45727</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="1">
         <f ca="1">VLOOKUP($B2, INDIRECT("'"&amp;TEXT($A2, "yyyy-mm-dd")&amp;"'!B:J"), 4, FALSE)</f>
-        <v>101.1</v>
+        <v>120.8</v>
       </c>
       <c r="E2" s="1">
         <f ca="1">VLOOKUP($B2, INDIRECT("'"&amp;TEXT($A2, "yyyy-mm-dd")&amp;"'!B:J"), 6, FALSE)</f>
-        <v>109</v>
+        <v>100.4</v>
       </c>
       <c r="F2" s="1">
         <f ca="1">VLOOKUP($B2, INDIRECT("'"&amp;TEXT($A2, "yyyy-mm-dd")&amp;"'!B:J"), 8, FALSE)</f>
-        <v>67.900000000000006</v>
+        <v>65</v>
       </c>
       <c r="G2" s="1">
         <f ca="1">VLOOKUP($C2, INDIRECT("'"&amp;TEXT($A2, "yyyy-mm-dd")&amp;"'!B:J"), 4, FALSE)</f>
@@ -1946,17 +1947,17 @@
       </c>
       <c r="J2" s="7">
         <f ca="1">1/(1+EXP(-($X$1+($X$2*D2)+($X$3*E2)+($X$4*F2)+($X$5*G2)+($X$6*H2)+($X$7*I2))))</f>
-        <v>3.2137431901693809E-3</v>
+        <v>6.6473250438863637E-2</v>
       </c>
       <c r="K2" s="8">
         <f ca="1">1-J2</f>
-        <v>0.99678625680983057</v>
+        <v>0.93352674956113635</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
       </c>
       <c r="M2" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>416</v>
@@ -1969,49 +1970,49 @@
       <c r="A3" s="6">
         <v>45727</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D9" ca="1" si="0">VLOOKUP($B3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 4, FALSE)</f>
-        <v>106.3</v>
+        <f t="shared" ref="D3:D5" ca="1" si="0">VLOOKUP($B3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 4, FALSE)</f>
+        <v>116.9</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E9" ca="1" si="1">VLOOKUP($B3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 6, FALSE)</f>
-        <v>104.7</v>
+        <f t="shared" ref="E3:E5" ca="1" si="1">VLOOKUP($B3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 6, FALSE)</f>
+        <v>93.4</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F9" ca="1" si="2">VLOOKUP($B3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 8, FALSE)</f>
-        <v>68.099999999999994</v>
+        <f t="shared" ref="F3:F5" ca="1" si="2">VLOOKUP($B3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 8, FALSE)</f>
+        <v>62</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G9" ca="1" si="3">VLOOKUP($C3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 4, FALSE)</f>
+        <f t="shared" ref="G3:G5" ca="1" si="3">VLOOKUP($C3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 4, FALSE)</f>
         <v>127.3</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H9" ca="1" si="4">VLOOKUP($C3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 6, FALSE)</f>
+        <f t="shared" ref="H3:H5" ca="1" si="4">VLOOKUP($C3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 6, FALSE)</f>
         <v>97.5</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I9" ca="1" si="5">VLOOKUP($C3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 8, FALSE)</f>
+        <f t="shared" ref="I3:I5" ca="1" si="5">VLOOKUP($C3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 8, FALSE)</f>
         <v>74.900000000000006</v>
       </c>
       <c r="J3" s="7">
-        <f t="shared" ref="J3:J9" ca="1" si="6">1/(1+EXP(-($X$1+($X$2*D3)+($X$3*E3)+($X$4*F3)+($X$5*G3)+($X$6*H3)+($X$7*I3))))</f>
-        <v>3.2711186697876003E-2</v>
+        <f t="shared" ref="J3:J5" ca="1" si="6">1/(1+EXP(-($X$1+($X$2*D3)+($X$3*E3)+($X$4*F3)+($X$5*G3)+($X$6*H3)+($X$7*I3))))</f>
+        <v>0.30124211471660589</v>
       </c>
       <c r="K3" s="8">
-        <f t="shared" ref="K3:K9" ca="1" si="7">1-J3</f>
-        <v>0.96728881330212402</v>
+        <f t="shared" ref="K3:K5" ca="1" si="7">1-J3</f>
+        <v>0.69875788528339411</v>
       </c>
       <c r="L3" s="1">
         <v>2</v>
       </c>
       <c r="M3" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>417</v>
@@ -2024,23 +2025,23 @@
       <c r="A4" s="6">
         <v>45727</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.5</v>
+        <v>117</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>111.8</v>
+        <v>96.5</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>67.3</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -2056,17 +2057,17 @@
       </c>
       <c r="J4" s="7">
         <f t="shared" ca="1" si="6"/>
-        <v>2.6900538328460708E-2</v>
+        <v>0.29746680789068025</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.97309946167153927</v>
+        <v>0.70253319210931975</v>
       </c>
       <c r="L4" s="1">
         <v>3</v>
       </c>
       <c r="M4" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>418</v>
@@ -2079,23 +2080,23 @@
       <c r="A5" s="6">
         <v>45727</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>112.8</v>
+        <v>117.8</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>106.8</v>
+        <v>97.9</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -2111,17 +2112,17 @@
       </c>
       <c r="J5" s="7">
         <f t="shared" ca="1" si="6"/>
-        <v>7.1491564640464578E-2</v>
+        <v>0.29246336461325878</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.92850843535953542</v>
+        <v>0.70753663538674116</v>
       </c>
       <c r="L5" s="1">
         <v>4</v>
       </c>
       <c r="M5" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>419</v>
@@ -2189,115 +2190,115 @@
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.99253954165833691</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.99678625680983057</v>
-      </c>
-      <c r="E13" s="1">
-        <v>7.4604583416630899E-3</v>
-      </c>
-      <c r="F13" s="1">
-        <v>3.2137431901693809E-3</v>
+      <c r="B13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.8619867256983027</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.93352674956113635</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.1380132743016973</v>
+      </c>
+      <c r="F13" s="9">
+        <v>6.6473250438863637E-2</v>
       </c>
       <c r="G13" s="1">
         <f>AVERAGE(C13:D13)</f>
-        <v>0.9946628992340838</v>
+        <v>0.89775673762971953</v>
       </c>
       <c r="H13" s="1">
         <f>AVERAGE(E13:F13)</f>
-        <v>5.3371007659162358E-3</v>
+        <v>0.10224326237028047</v>
       </c>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.93335962800748995</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.96728881330212402</v>
-      </c>
-      <c r="E14" s="1">
-        <v>6.664037199251005E-2</v>
-      </c>
-      <c r="F14" s="1">
-        <v>3.2711186697876003E-2</v>
+      <c r="B14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.53201115574606983</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.69875788528339411</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.46798884425393017</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0.30124211471660589</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" ref="G14:G20" si="8">AVERAGE(C14:D14)</f>
-        <v>0.95032422065480704</v>
+        <f t="shared" ref="G14:G16" si="8">AVERAGE(C14:D14)</f>
+        <v>0.61538452051473191</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" ref="H14:H20" si="9">AVERAGE(E14:F14)</f>
-        <v>4.967577934519303E-2</v>
+        <f t="shared" ref="H14:H16" si="9">AVERAGE(E14:F14)</f>
+        <v>0.38461547948526803</v>
       </c>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.931187805080261</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.97309946167153927</v>
-      </c>
-      <c r="E15" s="1">
-        <v>6.8812194919739E-2</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2.6900538328460708E-2</v>
+      <c r="B15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.51556247163270352</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.70253319210931975</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.48443752836729648</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.29746680789068025</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="8"/>
-        <v>0.95214363337590013</v>
+        <v>0.60904783187101164</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="9"/>
-        <v>4.7856366624099853E-2</v>
+        <v>0.39095216812898836</v>
       </c>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.85456583069284264</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.92850843535953542</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.14543416930715736</v>
-      </c>
-      <c r="F16" s="1">
-        <v>7.1491564640464578E-2</v>
+      <c r="B16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.53370132407594717</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.70753663538674116</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.46629867592405283</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.29246336461325878</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="8"/>
-        <v>0.89153713302618898</v>
+        <v>0.62061897973134417</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="9"/>
-        <v>0.10846286697381097</v>
+        <v>0.37938102026865583</v>
       </c>
     </row>
   </sheetData>
@@ -2309,21 +2310,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A045E3-F78D-4575-A845-74ED529A5E11}">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:X7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -2378,22 +2379,22 @@
         <v>45727</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>222</v>
+        <v>70</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="1">
         <f ca="1">VLOOKUP($B2, INDIRECT("'"&amp;TEXT($A2, "yyyy-mm-dd")&amp;"'!B:J"), 4, FALSE)</f>
-        <v>109.5</v>
+        <v>119.2</v>
       </c>
       <c r="E2" s="1">
         <f ca="1">VLOOKUP($B2, INDIRECT("'"&amp;TEXT($A2, "yyyy-mm-dd")&amp;"'!B:J"), 6, FALSE)</f>
-        <v>110.4</v>
+        <v>101.4</v>
       </c>
       <c r="F2" s="1">
         <f ca="1">VLOOKUP($B2, INDIRECT("'"&amp;TEXT($A2, "yyyy-mm-dd")&amp;"'!B:J"), 8, FALSE)</f>
-        <v>66.7</v>
+        <v>68.7</v>
       </c>
       <c r="G2" s="1">
         <f ca="1">VLOOKUP($C2, INDIRECT("'"&amp;TEXT($A2, "yyyy-mm-dd")&amp;"'!B:J"), 4, FALSE)</f>
@@ -2409,17 +2410,17 @@
       </c>
       <c r="J2" s="7">
         <f ca="1">1/(1+EXP(-($X$1+($X$2*D2)+($X$3*E2)+($X$4*F2)+($X$5*G2)+($X$6*H2)+($X$7*I2))))</f>
-        <v>1.0926366155010797E-2</v>
+        <v>9.0865719479143292E-2</v>
       </c>
       <c r="K2" s="8">
         <f ca="1">1-J2</f>
-        <v>0.98907363384498925</v>
+        <v>0.90913428052085665</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
       </c>
       <c r="M2" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>416</v>
@@ -2433,48 +2434,48 @@
         <v>45727</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>211</v>
+        <v>58</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D9" ca="1" si="0">VLOOKUP($B3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 4, FALSE)</f>
-        <v>111.6</v>
+        <f t="shared" ref="D3:D5" ca="1" si="0">VLOOKUP($B3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 4, FALSE)</f>
+        <v>116.2</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E9" ca="1" si="1">VLOOKUP($B3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 6, FALSE)</f>
-        <v>111.7</v>
+        <f t="shared" ref="E3:E5" ca="1" si="1">VLOOKUP($B3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 6, FALSE)</f>
+        <v>92.3</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F9" ca="1" si="2">VLOOKUP($B3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 8, FALSE)</f>
-        <v>67.7</v>
+        <f t="shared" ref="F3:F5" ca="1" si="2">VLOOKUP($B3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 8, FALSE)</f>
+        <v>68.599999999999994</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G9" ca="1" si="3">VLOOKUP($C3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 4, FALSE)</f>
+        <f t="shared" ref="G3:G5" ca="1" si="3">VLOOKUP($C3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 4, FALSE)</f>
         <v>114.2</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H9" ca="1" si="4">VLOOKUP($C3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 6, FALSE)</f>
+        <f t="shared" ref="H3:H5" ca="1" si="4">VLOOKUP($C3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 6, FALSE)</f>
         <v>89.3</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I9" ca="1" si="5">VLOOKUP($C3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 8, FALSE)</f>
+        <f t="shared" ref="I3:I5" ca="1" si="5">VLOOKUP($C3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 8, FALSE)</f>
         <v>70</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">1/(1+EXP(-($X$1+($X$2*D3)+($X$3*E3)+($X$4*F3)+($X$5*G3)+($X$6*H3)+($X$7*I3))))</f>
-        <v>2.7307675563784661E-2</v>
+        <v>0.38800402319829724</v>
       </c>
       <c r="K3" s="8">
-        <f t="shared" ref="K3:K8" ca="1" si="6">1-J3</f>
-        <v>0.97269232443621534</v>
+        <f t="shared" ref="K3:K5" ca="1" si="6">1-J3</f>
+        <v>0.6119959768017027</v>
       </c>
       <c r="L3" s="1">
         <v>2</v>
       </c>
       <c r="M3" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>417</v>
@@ -2488,22 +2489,22 @@
         <v>45727</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>113.1</v>
+        <v>126</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>108</v>
+        <v>101.7</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>65.8</v>
+        <v>68.2</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -2518,18 +2519,18 @@
         <v>65.8</v>
       </c>
       <c r="J4" s="7">
-        <f t="shared" ref="J4:J9" ca="1" si="7">1/(1+EXP(-($X$1+($X$2*D4)+($X$3*E4)+($X$4*F4)+($X$5*G4)+($X$6*H4)+($X$7*I4))))</f>
-        <v>4.017292024851777E-2</v>
+        <f t="shared" ref="J4:J5" ca="1" si="7">1/(1+EXP(-($X$1+($X$2*D4)+($X$3*E4)+($X$4*F4)+($X$5*G4)+($X$6*H4)+($X$7*I4))))</f>
+        <v>0.26442399812385736</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.95982707975148218</v>
+        <v>0.73557600187614258</v>
       </c>
       <c r="L4" s="1">
         <v>3</v>
       </c>
       <c r="M4" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>418</v>
@@ -2543,22 +2544,22 @@
         <v>45727</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>106.2</v>
+        <v>116.4</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>100.6</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>71.900000000000006</v>
+        <v>66.2</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -2574,17 +2575,17 @@
       </c>
       <c r="J5" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>7.888091626756108E-2</v>
+        <v>0.17094849074452859</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.92111908373243889</v>
+        <v>0.82905150925547144</v>
       </c>
       <c r="L5" s="1">
         <v>4</v>
       </c>
       <c r="M5" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>419</v>
@@ -2594,53 +2595,19 @@
       </c>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="6">
-        <v>45727</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>116.4</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>100.6</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>66.2</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>114.1</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>98.1</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>70.599999999999994</v>
-      </c>
-      <c r="J6" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.37941782286278197</v>
-      </c>
-      <c r="K6" s="8">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.62058217713721797</v>
-      </c>
-      <c r="L6" s="1">
-        <v>5</v>
-      </c>
-      <c r="M6" s="1">
-        <v>12</v>
-      </c>
+      <c r="A6" s="6"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
       <c r="W6" s="1" t="s">
         <v>420</v>
       </c>
@@ -2649,53 +2616,19 @@
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="6">
-        <v>45727</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>112.9</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>99.5</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>59.1</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>126</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>101.7</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>68.2</v>
-      </c>
-      <c r="J7" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.18089730087425493</v>
-      </c>
-      <c r="K7" s="8">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.81910269912574507</v>
-      </c>
-      <c r="L7" s="1">
-        <v>6</v>
-      </c>
-      <c r="M7" s="1">
-        <v>11</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
       <c r="W7" s="1" t="s">
         <v>421</v>
       </c>
@@ -2704,102 +2637,34 @@
       </c>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="6">
-        <v>45727</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>113.2</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>95.5</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>69.400000000000006</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>116.2</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>92.3</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>68.599999999999994</v>
-      </c>
-      <c r="J8" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.26351278303840442</v>
-      </c>
-      <c r="K8" s="8">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.73648721696159558</v>
-      </c>
-      <c r="L8" s="1">
-        <v>7</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10</v>
-      </c>
+      <c r="A8" s="6"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="6">
-        <v>45727</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>119.2</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>101.4</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>68.7</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>122.3</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>103.3</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>64.3</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.36605931735913261</v>
-      </c>
-      <c r="K9" s="8">
-        <f ca="1">1-J9</f>
-        <v>0.63394068264086734</v>
-      </c>
-      <c r="L9" s="1">
-        <v>8</v>
-      </c>
-      <c r="M9" s="1">
-        <v>9</v>
-      </c>
+      <c r="A9" s="6"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="1"/>
@@ -2867,27 +2732,27 @@
         <v>41</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>222</v>
+        <v>70</v>
       </c>
       <c r="C13" s="9">
-        <v>0.9740451710396324</v>
+        <v>0.82715973756771832</v>
       </c>
       <c r="D13" s="9">
-        <v>0.98907363384498925</v>
+        <v>0.90913428052085665</v>
       </c>
       <c r="E13" s="9">
-        <v>2.5954828960367604E-2</v>
+        <v>0.17284026243228168</v>
       </c>
       <c r="F13" s="9">
-        <v>1.0926366155010797E-2</v>
+        <v>9.0865719479143292E-2</v>
       </c>
       <c r="G13" s="1">
         <f>AVERAGE(C13:D13)</f>
-        <v>0.98155940244231088</v>
+        <v>0.86814700904428754</v>
       </c>
       <c r="H13" s="1">
         <f>AVERAGE(E13:F13)</f>
-        <v>1.84405975576892E-2</v>
+        <v>0.13185299095571248</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -2900,27 +2765,27 @@
         <v>52</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>211</v>
+        <v>58</v>
       </c>
       <c r="C14" s="9">
-        <v>0.94072035921338271</v>
+        <v>0.48113645735151817</v>
       </c>
       <c r="D14" s="9">
-        <v>0.97269232443621534</v>
+        <v>0.6119959768017027</v>
       </c>
       <c r="E14" s="9">
-        <v>5.9279640786617294E-2</v>
+        <v>0.51886354264848178</v>
       </c>
       <c r="F14" s="9">
-        <v>2.7307675563784661E-2</v>
+        <v>0.38800402319829724</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" ref="G14:G20" si="8">AVERAGE(C14:D14)</f>
-        <v>0.95670634182479897</v>
+        <f t="shared" ref="G14:G16" si="8">AVERAGE(C14:D14)</f>
+        <v>0.54656621707661046</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" ref="H14:H20" si="9">AVERAGE(E14:F14)</f>
-        <v>4.3293658175200977E-2</v>
+        <f t="shared" ref="H14:H16" si="9">AVERAGE(E14:F14)</f>
+        <v>0.45343378292338954</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2933,27 +2798,27 @@
         <v>43</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="C15" s="9">
-        <v>0.89910051386579104</v>
+        <v>0.53587076878744522</v>
       </c>
       <c r="D15" s="9">
-        <v>0.95982707975148218</v>
+        <v>0.73557600187614258</v>
       </c>
       <c r="E15" s="9">
-        <v>0.10089948613420896</v>
+        <v>0.46412923121255478</v>
       </c>
       <c r="F15" s="9">
-        <v>4.017292024851777E-2</v>
+        <v>0.26442399812385736</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="8"/>
-        <v>0.92946379680863656</v>
+        <v>0.63572338533179384</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="9"/>
-        <v>7.0536203191363361E-2</v>
+        <v>0.36427661466820604</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -2966,27 +2831,27 @@
         <v>50</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="C16" s="9">
-        <v>0.86360024109902278</v>
+        <v>0.69911139926634869</v>
       </c>
       <c r="D16" s="9">
-        <v>0.92111908373243889</v>
+        <v>0.82905150925547144</v>
       </c>
       <c r="E16" s="9">
-        <v>0.13639975890097722</v>
+        <v>0.30088860073365131</v>
       </c>
       <c r="F16" s="9">
-        <v>7.888091626756108E-2</v>
+        <v>0.17094849074452859</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="8"/>
-        <v>0.89235966241573084</v>
+        <v>0.76408145426091001</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="9"/>
-        <v>0.10764033758426915</v>
+        <v>0.23591854573908994</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -2995,32 +2860,14 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="9">
-        <v>0.42360299109724431</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0.62058217713721797</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0.57639700890275569</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0.37941782286278197</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="8"/>
-        <v>0.52209258411723114</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="9"/>
-        <v>0.47790741588276886</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -3028,32 +2875,14 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="9">
-        <v>0.62194923779597866</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0.81910269912574507</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0.37805076220402134</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0.18089730087425493</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="8"/>
-        <v>0.72052596846086181</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" si="9"/>
-        <v>0.27947403153913813</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -3061,32 +2890,14 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="9">
-        <v>0.59911765077427581</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0.73648721696159558</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0.40088234922572419</v>
-      </c>
-      <c r="F19" s="9">
-        <v>0.26351278303840442</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="8"/>
-        <v>0.6678024338679357</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" si="9"/>
-        <v>0.3321975661320643</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -3094,32 +2905,14 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="9">
-        <v>0.39691882918745153</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0.63394068264086734</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0.60308117081254853</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0.36605931735913261</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="8"/>
-        <v>0.5154297559141594</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" si="9"/>
-        <v>0.4845702440858406</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -3137,22 +2930,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D5A0F3-DE68-4CF2-A1A0-83FE9E8AF7E9}">
-  <dimension ref="A1:X20"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G16" sqref="G16:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3208,22 +3002,22 @@
         <v>45727</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>266</v>
+        <v>44</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="1">
         <f ca="1">VLOOKUP($B2, INDIRECT("'"&amp;TEXT($A2, "yyyy-mm-dd")&amp;"'!B:J"), 4, FALSE)</f>
-        <v>102.4</v>
+        <v>125.1</v>
       </c>
       <c r="E2" s="1">
         <f ca="1">VLOOKUP($B2, INDIRECT("'"&amp;TEXT($A2, "yyyy-mm-dd")&amp;"'!B:J"), 6, FALSE)</f>
-        <v>106.7</v>
+        <v>97.9</v>
       </c>
       <c r="F2" s="1">
         <f ca="1">VLOOKUP($B2, INDIRECT("'"&amp;TEXT($A2, "yyyy-mm-dd")&amp;"'!B:J"), 8, FALSE)</f>
-        <v>66.099999999999994</v>
+        <v>70.3</v>
       </c>
       <c r="G2" s="1">
         <f ca="1">VLOOKUP($C2, INDIRECT("'"&amp;TEXT($A2, "yyyy-mm-dd")&amp;"'!B:J"), 4, FALSE)</f>
@@ -3239,17 +3033,17 @@
       </c>
       <c r="J2" s="7">
         <f ca="1">1/(1+EXP(-($X$1+($X$2*D2)+($X$3*E2)+($X$4*F2)+($X$5*G2)+($X$6*H2)+($X$7*I2))))</f>
-        <v>7.2739158595145582E-3</v>
+        <v>0.19071360701445605</v>
       </c>
       <c r="K2" s="8">
         <f ca="1">1-J2</f>
-        <v>0.99272608414048547</v>
+        <v>0.80928639298554395</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
       </c>
       <c r="M2" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>416</v>
@@ -3263,48 +3057,48 @@
         <v>45727</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D9" ca="1" si="0">VLOOKUP($B3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 4, FALSE)</f>
-        <v>112.6</v>
+        <f t="shared" ref="D3:D5" ca="1" si="0">VLOOKUP($B3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 4, FALSE)</f>
+        <v>117.1</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E9" ca="1" si="1">VLOOKUP($B3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 6, FALSE)</f>
-        <v>109.1</v>
+        <f t="shared" ref="E3:E5" ca="1" si="1">VLOOKUP($B3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 6, FALSE)</f>
+        <v>94.6</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F9" ca="1" si="2">VLOOKUP($B3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 8, FALSE)</f>
-        <v>64.3</v>
+        <f t="shared" ref="F3:F5" ca="1" si="2">VLOOKUP($B3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 8, FALSE)</f>
+        <v>65.099999999999994</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G9" ca="1" si="3">VLOOKUP($C3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 4, FALSE)</f>
+        <f t="shared" ref="G3:G5" ca="1" si="3">VLOOKUP($C3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 4, FALSE)</f>
         <v>119.3</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H9" ca="1" si="4">VLOOKUP($C3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 6, FALSE)</f>
+        <f t="shared" ref="H3:H5" ca="1" si="4">VLOOKUP($C3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 6, FALSE)</f>
         <v>88.5</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I9" ca="1" si="5">VLOOKUP($C3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 8, FALSE)</f>
+        <f t="shared" ref="I3:I5" ca="1" si="5">VLOOKUP($C3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 8, FALSE)</f>
         <v>63.9</v>
       </c>
       <c r="J3" s="7">
-        <f t="shared" ref="J3:J9" ca="1" si="6">1/(1+EXP(-($X$1+($X$2*D3)+($X$3*E3)+($X$4*F3)+($X$5*G3)+($X$6*H3)+($X$7*I3))))</f>
-        <v>2.162675569271176E-2</v>
+        <f t="shared" ref="J3:J5" ca="1" si="6">1/(1+EXP(-($X$1+($X$2*D3)+($X$3*E3)+($X$4*F3)+($X$5*G3)+($X$6*H3)+($X$7*I3))))</f>
+        <v>0.20154595410516546</v>
       </c>
       <c r="K3" s="8">
-        <f t="shared" ref="K3:K9" ca="1" si="7">1-J3</f>
-        <v>0.97837324430728823</v>
+        <f t="shared" ref="K3:K5" ca="1" si="7">1-J3</f>
+        <v>0.7984540458948346</v>
       </c>
       <c r="L3" s="1">
         <v>2</v>
       </c>
       <c r="M3" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>417</v>
@@ -3318,22 +3112,22 @@
         <v>45727</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>106.9</v>
+        <v>121.9</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>101.6</v>
+        <v>97.4</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>66.2</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -3349,17 +3143,17 @@
       </c>
       <c r="J4" s="7">
         <f t="shared" ca="1" si="6"/>
-        <v>7.7472081976370455E-2</v>
+        <v>0.40484924017111767</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.92252791802362955</v>
+        <v>0.59515075982888233</v>
       </c>
       <c r="L4" s="1">
         <v>3</v>
       </c>
       <c r="M4" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>418</v>
@@ -3373,22 +3167,22 @@
         <v>45727</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>119.2</v>
+        <v>120.4</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>110.1</v>
+        <v>96.1</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>66.7</v>
+        <v>64.2</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -3404,17 +3198,17 @@
       </c>
       <c r="J5" s="7">
         <f t="shared" ca="1" si="6"/>
-        <v>8.0431399986733945E-2</v>
+        <v>0.39671537889442082</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.91956860001326601</v>
+        <v>0.60328462110557912</v>
       </c>
       <c r="L5" s="1">
         <v>4</v>
       </c>
       <c r="M5" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>419</v>
@@ -3424,53 +3218,19 @@
       </c>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="6">
-        <v>45727</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>114.8</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>101.1</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>65.5</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>120.4</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>96.1</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>64.2</v>
-      </c>
-      <c r="J6" s="7">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.15947761739973668</v>
-      </c>
-      <c r="K6" s="8">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.84052238260026335</v>
-      </c>
-      <c r="L6" s="1">
-        <v>5</v>
-      </c>
-      <c r="M6" s="1">
-        <v>12</v>
-      </c>
+      <c r="A6" s="6"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
       <c r="W6" s="1" t="s">
         <v>420</v>
       </c>
@@ -3479,53 +3239,19 @@
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="6">
-        <v>45727</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>116.3</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>99.8</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>67.5</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>121.9</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>97.4</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>71.599999999999994</v>
-      </c>
-      <c r="J7" s="7">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.22447776396751454</v>
-      </c>
-      <c r="K7" s="8">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.77552223603248549</v>
-      </c>
-      <c r="L7" s="1">
-        <v>6</v>
-      </c>
-      <c r="M7" s="1">
-        <v>11</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
       <c r="W7" s="1" t="s">
         <v>421</v>
       </c>
@@ -3534,102 +3260,34 @@
       </c>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="6">
-        <v>45727</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>121.2</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>106</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>67.900000000000006</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>117.1</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>94.6</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>65.099999999999994</v>
-      </c>
-      <c r="J8" s="7">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.17781086947804955</v>
-      </c>
-      <c r="K8" s="8">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.82218913052195042</v>
-      </c>
-      <c r="L8" s="1">
-        <v>7</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10</v>
-      </c>
+      <c r="A8" s="6"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="6">
-        <v>45727</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>115.9</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>96.2</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>66.7</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>125.1</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>97.9</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>70.3</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.25667932563873225</v>
-      </c>
-      <c r="K9" s="8">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.7433206743612677</v>
-      </c>
-      <c r="L9" s="1">
-        <v>8</v>
-      </c>
-      <c r="M9" s="1">
-        <v>9</v>
-      </c>
+      <c r="A9" s="6"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="1"/>
@@ -3697,27 +3355,27 @@
         <v>39</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>266</v>
+        <v>44</v>
       </c>
       <c r="C13" s="9">
-        <v>0.98200813710003432</v>
+        <v>0.66482476276302582</v>
       </c>
       <c r="D13" s="9">
-        <v>0.99272608414048547</v>
+        <v>0.80928639298554395</v>
       </c>
       <c r="E13" s="9">
-        <v>1.7991862899965683E-2</v>
+        <v>0.33517523723697418</v>
       </c>
       <c r="F13" s="9">
-        <v>7.2739158595145582E-3</v>
+        <v>0.19071360701445605</v>
       </c>
       <c r="G13" s="1">
         <f>AVERAGE(C13:D13)</f>
-        <v>0.98736711062025995</v>
+        <v>0.73705557787428488</v>
       </c>
       <c r="H13" s="1">
         <f>AVERAGE(E13:F13)</f>
-        <v>1.2632889379740121E-2</v>
+        <v>0.26294442212571512</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -3730,27 +3388,27 @@
         <v>42</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="C14" s="9">
-        <v>0.94669415037801463</v>
+        <v>0.65685044796481873</v>
       </c>
       <c r="D14" s="9">
-        <v>0.97837324430728823</v>
+        <v>0.7984540458948346</v>
       </c>
       <c r="E14" s="9">
-        <v>5.3305849621985368E-2</v>
+        <v>0.34314955203518127</v>
       </c>
       <c r="F14" s="9">
-        <v>2.162675569271176E-2</v>
+        <v>0.20154595410516546</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" ref="G14:G20" si="8">AVERAGE(C14:D14)</f>
-        <v>0.96253369734265148</v>
+        <f t="shared" ref="G14:G16" si="8">AVERAGE(C14:D14)</f>
+        <v>0.72765224692982666</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" ref="H14:H20" si="9">AVERAGE(E14:F14)</f>
-        <v>3.7466302657348564E-2</v>
+        <f t="shared" ref="H14:H16" si="9">AVERAGE(E14:F14)</f>
+        <v>0.27234775307017334</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -3763,27 +3421,27 @@
         <v>49</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="C15" s="9">
-        <v>0.8375825563513567</v>
+        <v>0.41926533220876122</v>
       </c>
       <c r="D15" s="9">
-        <v>0.92252791802362955</v>
+        <v>0.59515075982888233</v>
       </c>
       <c r="E15" s="9">
-        <v>0.1624174436486433</v>
+        <v>0.58073466779123883</v>
       </c>
       <c r="F15" s="9">
-        <v>7.7472081976370455E-2</v>
+        <v>0.40484924017111767</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="8"/>
-        <v>0.88005523718749312</v>
+        <v>0.50720804601882175</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="9"/>
-        <v>0.11994476281250688</v>
+        <v>0.49279195398117825</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -3796,165 +3454,33 @@
         <v>51</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="C16" s="9">
-        <v>0.79848301087155604</v>
+        <v>0.3796745079076837</v>
       </c>
       <c r="D16" s="9">
-        <v>0.91956860001326601</v>
+        <v>0.60328462110557912</v>
       </c>
       <c r="E16" s="9">
-        <v>0.20151698912844396</v>
+        <v>0.62032549209231624</v>
       </c>
       <c r="F16" s="9">
-        <v>8.0431399986733945E-2</v>
+        <v>0.39671537889442082</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="8"/>
-        <v>0.85902580544241103</v>
+        <v>0.49147956450663144</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="9"/>
-        <v>0.14097419455758894</v>
+        <v>0.50852043549336856</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="9">
-        <v>0.67979720580403236</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0.84052238260026335</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0.32020279419596764</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0.15947761739973668</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="8"/>
-        <v>0.76015979420214785</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="9"/>
-        <v>0.23984020579785215</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="9">
-        <v>0.61941359932581908</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0.77552223603248549</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0.38058640067418092</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0.22447776396751454</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="8"/>
-        <v>0.69746791767915228</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" si="9"/>
-        <v>0.30253208232084772</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="9">
-        <v>0.65162732519341782</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0.82218913052195042</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0.34837267480658218</v>
-      </c>
-      <c r="F19" s="9">
-        <v>0.17781086947804955</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="8"/>
-        <v>0.73690822785768417</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" si="9"/>
-        <v>0.26309177214231588</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="9">
-        <v>0.57757100165334474</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0.7433206743612677</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0.42242899834665526</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0.25667932563873225</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="8"/>
-        <v>0.66044583800730616</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" si="9"/>
-        <v>0.33955416199269373</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3965,20 +3491,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2344EA6-2633-49F0-A6A0-729974A7BEA8}">
   <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4034,22 +3560,22 @@
         <v>45727</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>330</v>
+        <v>59</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="1">
         <f ca="1">VLOOKUP($B2, INDIRECT("'"&amp;TEXT($A2, "yyyy-mm-dd")&amp;"'!B:J"), 4, FALSE)</f>
-        <v>101.9</v>
+        <v>118.6</v>
       </c>
       <c r="E2" s="1">
         <f ca="1">VLOOKUP($B2, INDIRECT("'"&amp;TEXT($A2, "yyyy-mm-dd")&amp;"'!B:J"), 6, FALSE)</f>
-        <v>111.7</v>
+        <v>95.6</v>
       </c>
       <c r="F2" s="1">
         <f ca="1">VLOOKUP($B2, INDIRECT("'"&amp;TEXT($A2, "yyyy-mm-dd")&amp;"'!B:J"), 8, FALSE)</f>
-        <v>68</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="G2" s="1">
         <f ca="1">VLOOKUP($C2, INDIRECT("'"&amp;TEXT($A2, "yyyy-mm-dd")&amp;"'!B:J"), 4, FALSE)</f>
@@ -4065,17 +3591,17 @@
       </c>
       <c r="J2" s="7">
         <f ca="1">1/(1+EXP(-($X$1+($X$2*D2)+($X$3*E2)+($X$4*F2)+($X$5*G2)+($X$6*H2)+($X$7*I2))))</f>
-        <v>3.9554799848910476E-3</v>
+        <v>0.15802993290398523</v>
       </c>
       <c r="K2" s="8">
         <f ca="1">1-J2</f>
-        <v>0.9960445200151089</v>
+        <v>0.84197006709601474</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
       </c>
       <c r="M2" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>416</v>
@@ -4089,48 +3615,48 @@
         <v>45727</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D9" ca="1" si="0">VLOOKUP($B3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 4, FALSE)</f>
-        <v>107.1</v>
+        <f t="shared" ref="D3:D5" ca="1" si="0">VLOOKUP($B3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 4, FALSE)</f>
+        <v>113.5</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E9" ca="1" si="1">VLOOKUP($B3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 6, FALSE)</f>
-        <v>106.7</v>
+        <f t="shared" ref="E3:E5" ca="1" si="1">VLOOKUP($B3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 6, FALSE)</f>
+        <v>95.9</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F9" ca="1" si="2">VLOOKUP($B3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 8, FALSE)</f>
-        <v>72.5</v>
+        <f t="shared" ref="F3:F5" ca="1" si="2">VLOOKUP($B3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 8, FALSE)</f>
+        <v>73.3</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G9" ca="1" si="3">VLOOKUP($C3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 4, FALSE)</f>
+        <f t="shared" ref="G3:G5" ca="1" si="3">VLOOKUP($C3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 4, FALSE)</f>
         <v>118.6</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H9" ca="1" si="4">VLOOKUP($C3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 6, FALSE)</f>
+        <f t="shared" ref="H3:H5" ca="1" si="4">VLOOKUP($C3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 6, FALSE)</f>
         <v>91.6</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I9" ca="1" si="5">VLOOKUP($C3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 8, FALSE)</f>
+        <f t="shared" ref="I3:I5" ca="1" si="5">VLOOKUP($C3, INDIRECT("'"&amp;TEXT($A3, "yyyy-mm-dd")&amp;"'!B:J"), 8, FALSE)</f>
         <v>67.8</v>
       </c>
       <c r="J3" s="7">
-        <f t="shared" ref="J3:J9" ca="1" si="6">1/(1+EXP(-($X$1+($X$2*D3)+($X$3*E3)+($X$4*F3)+($X$5*G3)+($X$6*H3)+($X$7*I3))))</f>
-        <v>3.0080090291164454E-2</v>
+        <f t="shared" ref="J3:J5" ca="1" si="6">1/(1+EXP(-($X$1+($X$2*D3)+($X$3*E3)+($X$4*F3)+($X$5*G3)+($X$6*H3)+($X$7*I3))))</f>
+        <v>0.2045671741562759</v>
       </c>
       <c r="K3" s="8">
-        <f t="shared" ref="K3:K9" ca="1" si="7">1-J3</f>
-        <v>0.96991990970883557</v>
+        <f t="shared" ref="K3:K5" ca="1" si="7">1-J3</f>
+        <v>0.7954328258437241</v>
       </c>
       <c r="L3" s="1">
         <v>2</v>
       </c>
       <c r="M3" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>417</v>
@@ -4144,22 +3670,22 @@
         <v>45727</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>113.2</v>
+        <v>118.9</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>96.9</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>66.099999999999994</v>
+        <v>68.3</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -4175,17 +3701,17 @@
       </c>
       <c r="J4" s="7">
         <f t="shared" ca="1" si="6"/>
-        <v>7.6470337375356787E-2</v>
+        <v>0.28065397415389925</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.9235296626246432</v>
+        <v>0.71934602584610075</v>
       </c>
       <c r="L4" s="1">
         <v>3</v>
       </c>
       <c r="M4" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>418</v>
@@ -4199,22 +3725,22 @@
         <v>45727</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>54</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>115.7</v>
+        <v>115.5</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>104.4</v>
+        <v>97.7</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>67.8</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -4230,17 +3756,17 @@
       </c>
       <c r="J5" s="7">
         <f t="shared" ca="1" si="6"/>
-        <v>0.10747368220950729</v>
+        <v>0.22594698044712525</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.89252631779049274</v>
+        <v>0.77405301955287475</v>
       </c>
       <c r="L5" s="1">
         <v>4</v>
       </c>
       <c r="M5" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>419</v>
@@ -4250,53 +3776,19 @@
       </c>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="6">
-        <v>45727</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>115.5</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>97.7</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>66.099999999999994</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>116.5</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>95.5</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>69.7</v>
-      </c>
-      <c r="J6" s="7">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.32015490803806318</v>
-      </c>
-      <c r="K6" s="8">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.67984509196193676</v>
-      </c>
-      <c r="L6" s="1">
-        <v>5</v>
-      </c>
-      <c r="M6" s="1">
-        <v>12</v>
-      </c>
+      <c r="A6" s="6"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
       <c r="W6" s="1" t="s">
         <v>420</v>
       </c>
@@ -4305,53 +3797,19 @@
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="6">
-        <v>45727</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>110.8</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>66.3</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>118.9</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>96.9</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>68.3</v>
-      </c>
-      <c r="J7" s="7">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.31246505895636312</v>
-      </c>
-      <c r="K7" s="8">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.68753494104363688</v>
-      </c>
-      <c r="L7" s="1">
-        <v>6</v>
-      </c>
-      <c r="M7" s="1">
-        <v>11</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
       <c r="W7" s="1" t="s">
         <v>421</v>
       </c>
@@ -4360,102 +3818,34 @@
       </c>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="6">
-        <v>45727</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>113.5</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>95.9</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>73.3</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>118.1</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>96.1</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>67.400000000000006</v>
-      </c>
-      <c r="J8" s="7">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.31910889079379184</v>
-      </c>
-      <c r="K8" s="8">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.68089110920620821</v>
-      </c>
-      <c r="L8" s="1">
-        <v>7</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10</v>
-      </c>
+      <c r="A8" s="6"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="6">
-        <v>45727</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>117.2</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>98.2</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>67.7</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>118.6</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>95.6</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>68.900000000000006</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.29986516800213914</v>
-      </c>
-      <c r="K9" s="8">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.70013483199786086</v>
-      </c>
-      <c r="L9" s="1">
-        <v>8</v>
-      </c>
-      <c r="M9" s="1">
-        <v>9</v>
-      </c>
+      <c r="A9" s="6"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="1"/>
@@ -4523,27 +3913,27 @@
         <v>37</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>330</v>
+        <v>59</v>
       </c>
       <c r="C13" s="9">
-        <v>0.99018674952975805</v>
+        <v>0.72498194479275291</v>
       </c>
       <c r="D13" s="9">
-        <v>0.9960445200151089</v>
+        <v>0.84197006709601474</v>
       </c>
       <c r="E13" s="9">
-        <v>9.8132504702419521E-3</v>
+        <v>0.27501805520724709</v>
       </c>
       <c r="F13" s="9">
-        <v>3.9554799848910476E-3</v>
+        <v>0.15802993290398523</v>
       </c>
       <c r="G13" s="1">
         <f>AVERAGE(C13:D13)</f>
-        <v>0.99311563477243348</v>
+        <v>0.78347600594438382</v>
       </c>
       <c r="H13" s="1">
         <f>AVERAGE(E13:F13)</f>
-        <v>6.8843652275665003E-3</v>
+        <v>0.21652399405561618</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -4556,27 +3946,27 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="C14" s="9">
-        <v>0.93975785213606333</v>
+        <v>0.68673306274603685</v>
       </c>
       <c r="D14" s="9">
-        <v>0.96991990970883557</v>
+        <v>0.7954328258437241</v>
       </c>
       <c r="E14" s="9">
-        <v>6.0242147863936668E-2</v>
+        <v>0.31326693725396315</v>
       </c>
       <c r="F14" s="9">
-        <v>3.0080090291164454E-2</v>
+        <v>0.2045671741562759</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" ref="G14:G20" si="8">AVERAGE(C14:D14)</f>
-        <v>0.95483888092244951</v>
+        <f t="shared" ref="G14:G16" si="8">AVERAGE(C14:D14)</f>
+        <v>0.74108294429488053</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" ref="H14:H20" si="9">AVERAGE(E14:F14)</f>
-        <v>4.5161119077550563E-2</v>
+        <f t="shared" ref="H14:H16" si="9">AVERAGE(E14:F14)</f>
+        <v>0.25891705570511953</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -4589,27 +3979,27 @@
         <v>48</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="C15" s="9">
-        <v>0.84496443558925338</v>
+        <v>0.56768200632488197</v>
       </c>
       <c r="D15" s="9">
-        <v>0.9235296626246432</v>
+        <v>0.71934602584610075</v>
       </c>
       <c r="E15" s="9">
-        <v>0.15503556441074662</v>
+        <v>0.43231799367511803</v>
       </c>
       <c r="F15" s="9">
-        <v>7.6470337375356787E-2</v>
+        <v>0.28065397415389925</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="8"/>
-        <v>0.88424704910694829</v>
+        <v>0.6435140160854913</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="9"/>
-        <v>0.11575295089305171</v>
+        <v>0.35648598391450864</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -4622,27 +4012,27 @@
         <v>54</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="C16" s="9">
-        <v>0.78544595713268017</v>
+        <v>0.61690924429343608</v>
       </c>
       <c r="D16" s="9">
-        <v>0.89252631779049274</v>
+        <v>0.77405301955287475</v>
       </c>
       <c r="E16" s="9">
-        <v>0.21455404286731983</v>
+        <v>0.38309075570656392</v>
       </c>
       <c r="F16" s="9">
-        <v>0.10747368220950729</v>
+        <v>0.22594698044712525</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="8"/>
-        <v>0.83898613746158646</v>
+        <v>0.69548113192315542</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="9"/>
-        <v>0.16101386253841354</v>
+        <v>0.30451886807684458</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -4651,32 +4041,14 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="9">
-        <v>0.50243498074996595</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0.67984509196193676</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0.49756501925003405</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0.32015490803806318</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="8"/>
-        <v>0.59114003635595136</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="9"/>
-        <v>0.40885996364404864</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -4684,32 +4056,14 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="9">
-        <v>0.5151303790968158</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0.68753494104363688</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0.4848696209031842</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0.31246505895636312</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="8"/>
-        <v>0.60133266007022634</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" si="9"/>
-        <v>0.39866733992977366</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -4717,32 +4071,14 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="9">
-        <v>0.52901486533793007</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0.68089110920620821</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0.47098513466206993</v>
-      </c>
-      <c r="F19" s="9">
-        <v>0.31910889079379184</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="8"/>
-        <v>0.60495298727206914</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" si="9"/>
-        <v>0.39504701272793086</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -4750,32 +4086,14 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="9">
-        <v>0.52587187292057924</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0.70013483199786086</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0.47412812707942076</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0.29986516800213914</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="8"/>
-        <v>0.61300335245922</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" si="9"/>
-        <v>0.38699664754077995</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -4791,13 +4109,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409B6597-58C1-460D-8025-96A7FB62E31E}">
   <dimension ref="A1:I372"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18">
